--- a/findings/muharrem_ince.xlsx
+++ b/findings/muharrem_ince.xlsx
@@ -453,97 +453,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>memleket, oy, sandık, millet, parti</t>
+          <t>program, konuk, tv, yayın, ekran</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, sandık, seçim</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cumhurbaşkan, aday, ata, imza, ittifak</t>
+          <t>bayram, memleket, enstitü, parti, bereket</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
+          <t>türk, bayram, türkiye, millet, atatürk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tv, program, konuk, ekran, yayın</t>
+          <t>oy, imza, sandık, ver, seçim</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>buluş, millet, oy, imza, seçim</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>atatürk, anne, rahmet, şehit, yaz</t>
+          <t>atatürk, anne, yaz, rahmet, şehit</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, gazi, allah</t>
+          <t>şehit, rahmet, atatürk, an, gazi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>memleket, türkiye, türk, parti, atatürkçü</t>
+          <t>sahte, belge, kumpas, fetö, nere</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
+          <t>sahte, belge, kumpas, fetö, nere</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bayram, enstitü, bereket, köy, huzur</t>
+          <t>deprem, konut, hatay, yara, yurttaş</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bayram, acı, çerkes, bereket, yıl</t>
+          <t>konut, deprem, depremzede, temel, hastane</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>genç, space, telefon, yanıl, trol</t>
+          <t>aday, cumhurbaşkan, kurum, ata, dr</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -551,14 +551,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>genç, telefon, buluş, medya, akşam</t>
+          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>deprem, konut, yara, hatay, yurttaş</t>
+          <t>polis, yanıl, öğretmen, üniversite, fal</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,14 +566,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+          <t>öğretmen, emekli, maaş, eğitim, hak</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cadde, sokak, esnaf, genç, meydan</t>
+          <t>sizinle, git, genç, yol, hazır</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, yoğun, genç</t>
+          <t>gel, saat, bekle, sizinle, yalnız</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>teşekkür, trabzon, samimiyet, ilgi, babala</t>
+          <t>basın, açıkla, gazeteci, medya, temiz</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -596,14 +596,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, misafirperverlikleri</t>
+          <t>basın, açıkla, medya, cemiyet, uygula</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>öv, güzel, vıcık, video, gülen</t>
+          <t>teşekkür, trabzon, samimiyet, ilgi, babala</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -611,14 +611,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>güzel, öv, çocuk, delikanlı, vıcık</t>
+          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sahte, sanatçı, iyi, gerçek, belge</t>
+          <t>öv, güzel, vıcık, video, gülen</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sahte, sanatçı, iyi, sağduyu, gerçek</t>
+          <t>güzel, öv, çocuk, delikanlı, vıcık</t>
         </is>
       </c>
     </row>

--- a/findings/muharrem_ince.xlsx
+++ b/findings/muharrem_ince.xlsx
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>program, konuk, tv, yayın, ekran</t>
+          <t>oy, sandık, millet, seçim, parti</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>millet, oy, buluş, sandık, seçim</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bayram, memleket, enstitü, parti, bereket</t>
+          <t>bayram, enstitü, kutlu, bereket, kahrol</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>türk, bayram, türkiye, millet, atatürk</t>
+          <t>bayram, atatürk, türk, kutlu, mustafa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>oy, imza, sandık, ver, seçim</t>
+          <t>cumhurbaşkan, aday, imza, ata, ittifak</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,74 +491,74 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, imza, seçim</t>
+          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>atatürk, anne, yaz, rahmet, şehit</t>
+          <t>tv, program, konuk, ekran, yayın</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, an, gazi</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sahte, belge, kumpas, fetö, nere</t>
+          <t>atatürk, yaz, rahmet, yusuf, şehit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sahte, belge, kumpas, fetö, nere</t>
+          <t>şehit, rahmet, atatürk, an, dönüm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>deprem, konut, hatay, yara, yurttaş</t>
+          <t>türkiye, memleket, parti, yurttaş, oy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>aday, cumhurbaşkan, kurum, ata, dr</t>
+          <t>sanatçı, iyi, memleket, fetö, sahte</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
+          <t>iyi, sanatçı, allah, iş, çık</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>polis, yanıl, öğretmen, üniversite, fal</t>
+          <t>deprem, konut, yara, hatay, yurttaş</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,14 +566,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>öğretmen, emekli, maaş, eğitim, hak</t>
+          <t>konut, deprem, depremzede, temel, hastane</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sizinle, git, genç, yol, hazır</t>
+          <t>teşekkür, yok, hazine, trabzon, samimiyet</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -581,29 +581,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gel, saat, bekle, sizinle, yalnız</t>
+          <t>teşekkür, başkan, dernek, muhteşem, misafirperverlikleri</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>basın, açıkla, gazeteci, medya, temiz</t>
+          <t>cadde, sokak, esnaf, genç, meydan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>basın, açıkla, medya, cemiyet, uygula</t>
+          <t>esnaf, cadde, ziyaret, genç, yoğun</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>teşekkür, trabzon, samimiyet, ilgi, babala</t>
+          <t>basın, açıkla, gazeteci, medya, temiz</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
+          <t>basın, açıkla, medya, uygula, cemiyet</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>güzel, öv, çocuk, delikanlı, vıcık</t>
+          <t>dadaş, öv, güzel, çocuk, erzurum</t>
         </is>
       </c>
     </row>
